--- a/Data/Trebac Playback Data_November 2022.xlsx
+++ b/Data/Trebac Playback Data_November 2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofnelincoln-my.sharepoint.com/personal/ctrebac2_unl_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlytrebac/Documents/GitHub/WBNU-playback/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84F30705-5909-0540-BA0F-D431D49088CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8D7C87-68A8-1145-83A1-72F8DFD4E573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16460" xr2:uid="{4C99C56D-1347-C14A-A596-296C23F96F99}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" xr2:uid="{4C99C56D-1347-C14A-A596-296C23F96F99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,15 +35,149 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>WP</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>DIAH</t>
+  </si>
+  <si>
+    <t>DICDV</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>VD</t>
+  </si>
+  <si>
+    <t>H app d</t>
+  </si>
+  <si>
+    <t>V app d</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Recording #</t>
+  </si>
+  <si>
+    <t>Control 3</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Did not respond at all to call. Looked once but kept foraging behavior</t>
+  </si>
+  <si>
+    <t>High 1</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Female flew in but later, male was responding for a while</t>
+  </si>
+  <si>
+    <t>5.0 </t>
+  </si>
+  <si>
+    <t>Low 1</t>
+  </si>
+  <si>
+    <t>High 3</t>
+  </si>
+  <si>
+    <t>Stayed in area and calling a lot but no approach looked like female. Still calling after treatment over. Got really close after. Hd:        14 ft 11 in Vd: 1.8</t>
+  </si>
+  <si>
+    <t>Control 2</t>
+  </si>
+  <si>
+    <t>Did not respond to call but looked for about 10 seconds and went back to foraging behavior</t>
+  </si>
+  <si>
+    <t>Stayed in the same tree the whole time but was foraging. Moving around a lot before.</t>
+  </si>
+  <si>
+    <t>High 2</t>
+  </si>
+  <si>
+    <t>Was not calling much but stayed in the area bouncing between three trees but approached to the closest tree</t>
+  </si>
+  <si>
+    <t>Territory dispute response</t>
+  </si>
+  <si>
+    <t>Low 2</t>
+  </si>
+  <si>
+    <t>May have to omit this one because I lost the bird halfway through</t>
+  </si>
+  <si>
+    <t>Bird approached later but was still calling for a bit before flying away</t>
+  </si>
+  <si>
+    <t>8.6 starting vertical female. Mail was doing wing flicks anna what was Bill wiping Bill wiping. 24.2 starting horizontal female. 21ft 9in close h female. 2.6 v female approach.</t>
+  </si>
+  <si>
+    <t>Control 1</t>
+  </si>
+  <si>
+    <t>Bird was looking but did not stay looking long and continued to move farther away from us to go to a feeder that was nearby</t>
+  </si>
+  <si>
+    <t>Both the male and female flew in and female flew out then back in and stayed until the end of recording and stayed at the same vicinity the whole time</t>
+  </si>
+  <si>
+    <t>Original individual was looking and remained in the area for a few minutes. Bill wiped two times and was looking at me.mate was also in the area. May not have approached because there was a pair behind us. Seemed to be a territory border.</t>
+  </si>
+  <si>
+    <t>Response was immediate and it was looking at us for a while but it did not approach and flew back. Maybe on a territory again</t>
+  </si>
+  <si>
+    <t>Looked initially but was foraging the whole time</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,8 +200,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,12 +520,730 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295DAB66-7475-AA48-91F2-E743C24A9A27}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>44872</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="H2" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>44872</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="H3" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>44876</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>44876</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="I5" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>44876</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.4770833333333333</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1">
+        <v>13.4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>44878</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.40625</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1">
+        <v>13.7</v>
+      </c>
+      <c r="H7" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>44878</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.42777777777777781</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1">
+        <v>14.8</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>44878</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.44375000000000003</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>44878</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1">
+        <v>12.64</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>44881</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>9</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>44881</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="C12" s="1">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I12" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>44883</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="I13" s="1">
+        <v>15.95</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>44883</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="C14" s="1">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>44883</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="C15" s="1">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="I15" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>44887</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="C16" s="1">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="1">
+        <v>18</v>
+      </c>
+      <c r="H16" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="I16" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="J16" s="1">
+        <v>7</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>44900</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="C17" s="1">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="H17" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="I17" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>44900</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="C18" s="1">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="H18" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="I18" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>44900</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="C19" s="1">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="1">
+        <v>14</v>
+      </c>
+      <c r="H19" s="1">
+        <v>11</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>44900</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="C20" s="1">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="1">
+        <v>12.6</v>
+      </c>
+      <c r="H20" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="38" spans="12:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="L38" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>